--- a/site/res/json/overall-raceData2024.json.xlsx
+++ b/site/res/json/overall-raceData2024.json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\frimleyFlyers\site\res\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59711510-03E3-483E-BE74-A0D65CBD998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF621E-736A-4986-B72D-57B9C44FA547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D51F29C-25B3-44AC-A010-76881403EF2A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D51F29C-25B3-44AC-A010-76881403EF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="overall-raceData2024.json" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>Overall</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>Column11</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
@@ -435,13 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -453,6 +461,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,9 +816,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,6 +933,20 @@
     <tableColumn id="9" xr3:uid="{2ACAFA44-C25D-4442-B36F-510B8ECF9D5A}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{C199B8DC-B8AA-4072-9B77-DBC9F5794503}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{DD95C13E-5185-4D41-92E3-29D5C2D7C731}" name="Column11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92754B55-8004-4A76-852F-78657F607F34}" name="Table1" displayName="Table1" ref="L1:P37" totalsRowShown="0">
+  <autoFilter ref="L1:P37" xr:uid="{92754B55-8004-4A76-852F-78657F607F34}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2F6B8D0D-C5F5-44D9-9190-A0C77B4C8595}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{AB84F337-1DA8-415B-A7A2-B99D208957CA}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{5AC8C02A-F964-48C6-A890-244D2512C976}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{877DDB11-6248-48A2-ABF5-8F8EE31CC7EC}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{97138E1C-C18F-4BCB-9BDF-3673A964441F}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1237,24 +1269,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40047064-E81B-4E5B-96D8-6D925F1813E0}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11" customWidth="1"/>
-    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
@@ -1287,1115 +1323,1550 @@
       <c r="K1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>106</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="3">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
+      <c r="H4" s="4">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>26</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>26</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4">
+        <v>22</v>
+      </c>
+      <c r="N6" s="4">
+        <v>22</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>22</v>
+      </c>
+      <c r="M8" s="4">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4">
+        <v>17</v>
+      </c>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>14</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="O10" s="4">
+        <v>12</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>12</v>
+      </c>
+      <c r="O11" s="4">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>4</v>
+      </c>
+      <c r="O12" s="4">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B14" s="3">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4">
+        <v>17</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>8</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4</v>
+      </c>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>90</v>
-      </c>
-      <c r="C5">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>8</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>6</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>6</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>26</v>
-      </c>
-      <c r="K5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>89</v>
-      </c>
-      <c r="C6">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>6</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>4</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>